--- a/Civilworks cost/Expenditure Preparations/input.xlsx
+++ b/Civilworks cost/Expenditure Preparations/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceNo" sheetId="2" r:id="rId1"/>
@@ -3651,15 +3651,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3557</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3558</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3559</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3560</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3561</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3562</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3563</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3564</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3565</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3566</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3567</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3568</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3569</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3570</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3571</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3572</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3573</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3574</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3575</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3576</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3577</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3578</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3579</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3580</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3581</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3582</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3583</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3584</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3585</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3586</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3587</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3588</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3589</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3590</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3591</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3592</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3593</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3594</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3595</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3596</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3597</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3598</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3599</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3600</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3601</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3602</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3603</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3604</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3605</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3606</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3607</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3608</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3609</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3611</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3612</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3613</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3614</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3615</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3616</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3617</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3618</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3619</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3620</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3621</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3622</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3623</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3624</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3625</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3626</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3627</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3628</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3629</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3630</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3631</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3632</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3633</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3634</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3635</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3636</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3637</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3638</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3639</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3640</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3641</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3642</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3643</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3644</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>3645</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3646</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>3647</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3648</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>3649</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3650</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3652</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3653</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>3654</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3655</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>3656</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3657</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3658</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3659</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3660</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3661</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>3662</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3663</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3664</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3665</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3666</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3667</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>3668</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3669</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3670</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3671</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3672</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3673</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3674</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3675</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3676</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3677</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>3678</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3679</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3680</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3681</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3682</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3683</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3684</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3685</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3686</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3687</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3688</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3689</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3690</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3691</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3692</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3693</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3694</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3695</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>3696</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3697</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3698</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3699</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3700</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3701</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3702</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3703</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3704</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3705</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>3706</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3707</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3708</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3709</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3710</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3711</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3712</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>3713</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3714</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3715</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3716</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3717</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3718</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3719</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3720</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3721</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3722</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3723</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3724</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3725</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3726</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3727</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3728</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3729</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3730</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3731</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3732</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3733</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3734</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3735</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3736</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3737</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3738</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3739</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3740</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3741</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3742</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3743</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3744</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3745</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3746</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3747</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3748</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3749</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3750</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3751</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3752</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3753</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3754</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3755</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3756</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3757</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3758</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3759</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3760</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3761</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3762</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3763</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3764</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3765</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3766</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3767</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3768</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3769</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3770</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3771</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>3772</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>3773</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3774</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3775</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3776</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3777</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3778</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3779</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3780</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>3781</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3782</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>3783</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>3784</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>3785</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3786</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3787</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3788</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3789</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>3791</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>3792</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3793</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3794</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3795</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3796</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3797</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3798</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>3799</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3800</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3801</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3802</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>3803</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>3804</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3805</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>3806</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3807</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3808</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>3809</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3810</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3811</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>3812</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>3813</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3814</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>3815</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3816</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3817</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>3818</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>3819</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>3820</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>3821</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>3822</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3823</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3824</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>3825</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3826</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>3827</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3828</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3829</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3830</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3831</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3832</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3833</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>3834</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3835</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3836</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>3837</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3838</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3839</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>3840</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>3841</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>3842</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>3843</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3844</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>3845</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3846</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>3847</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>3849</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3850</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3851</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>3852</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>3853</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>3854</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>3855</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3856</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>3857</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3858</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>3859</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>3860</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>3861</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>3862</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3863</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>3864</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3865</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3866</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>3867</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>3868</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>3869</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>3870</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>3871</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>3872</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>3873</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>3874</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3875</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>3876</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>3877</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>3878</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>3879</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>3880</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>3881</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>3882</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3883</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>3884</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>3885</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3886</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>3887</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>3888</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>3889</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>3890</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>3891</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>3892</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>3893</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>3894</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>3895</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>3896</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>3897</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>3898</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>3899</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>3900</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>3901</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>3902</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>3903</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>3904</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>3905</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>3906</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>3907</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>3908</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>3909</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>3910</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>3911</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>3912</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>3913</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>3914</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>3915</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>3916</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>3917</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>3918</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>3919</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>3920</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>3921</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>3922</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>3923</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>3924</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>3925</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>3926</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>3927</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>3928</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>3929</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>3930</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>3931</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>3932</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>3933</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>3934</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>3935</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>3936</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>3937</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>3938</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>3939</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>3940</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>3941</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>3942</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>3943</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>3944</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>3945</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>3946</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>3947</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>3948</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>3949</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>3950</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>3951</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>3952</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>3953</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>3954</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>3955</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>3956</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>3957</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>3958</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>3959</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>3960</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>3961</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>3962</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>3963</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>3964</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>3965</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>3966</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>3967</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>3968</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>3969</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>3970</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>3971</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>3972</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>3973</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>3974</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>3975</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>3976</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>3977</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>3978</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>3979</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>3980</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>3981</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>3982</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>3983</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>3984</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>3985</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>3986</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>3987</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>3988</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>3989</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>3990</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>3991</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>3992</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>3993</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>3994</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>3995</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>3996</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>3997</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>3998</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>3999</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>4000</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>4001</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>4002</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>4003</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>4004</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>4005</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>4006</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>4007</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>4008</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>4009</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>4010</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>4011</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>4012</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>4013</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>4014</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>4015</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>4016</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>4017</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>4018</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>4019</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>4020</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>4021</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>4022</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>4023</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>4024</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>4025</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>4026</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>4027</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>4028</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>4029</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>4030</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>4031</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>4032</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>4033</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>4034</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>4035</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>4036</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>4037</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>4038</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>4039</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>4040</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>3790</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>3848</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>3610</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>3651</v>
       </c>
@@ -17256,31 +17256,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:R71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="14" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="14" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="14" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="14" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="14" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="14" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" style="14" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>907</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>941</v>
       </c>
@@ -17393,7 +17393,7 @@
       </c>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>942</v>
       </c>
@@ -17450,7 +17450,7 @@
       </c>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>943</v>
       </c>
@@ -17507,7 +17507,7 @@
       </c>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>944</v>
       </c>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>945</v>
       </c>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>946</v>
       </c>
@@ -17678,7 +17678,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>947</v>
       </c>
@@ -17735,7 +17735,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>948</v>
       </c>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>949</v>
       </c>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>950</v>
       </c>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>951</v>
       </c>
@@ -17963,7 +17963,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>952</v>
       </c>
@@ -18021,7 +18021,7 @@
       <c r="S13" s="17"/>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>953</v>
       </c>
@@ -18078,7 +18078,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>954</v>
       </c>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>955</v>
       </c>
@@ -18192,7 +18192,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>956</v>
       </c>
@@ -18249,7 +18249,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>957</v>
       </c>
@@ -18306,7 +18306,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>958</v>
       </c>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>959</v>
       </c>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="W20" s="16"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>960</v>
       </c>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="W21" s="16"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>961</v>
       </c>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="W22" s="16"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>962</v>
       </c>
@@ -18591,7 +18591,7 @@
       </c>
       <c r="W23" s="16"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>963</v>
       </c>
@@ -18648,7 +18648,7 @@
       </c>
       <c r="W24" s="16"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>964</v>
       </c>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="W25" s="16"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>965</v>
       </c>
@@ -18762,7 +18762,7 @@
       </c>
       <c r="W26" s="16"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>966</v>
       </c>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="W27" s="16"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>967</v>
       </c>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="W28" s="16"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>968</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="W29" s="16"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>969</v>
       </c>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>970</v>
       </c>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="W31" s="16"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>971</v>
       </c>
@@ -19104,7 +19104,7 @@
       </c>
       <c r="W32" s="16"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>972</v>
       </c>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>973</v>
       </c>
@@ -19218,7 +19218,7 @@
       </c>
       <c r="W34" s="16"/>
     </row>
-    <row r="35" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>974</v>
       </c>
@@ -19276,7 +19276,7 @@
       <c r="S35" s="17"/>
       <c r="W35" s="16"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>975</v>
       </c>
@@ -19333,7 +19333,7 @@
       </c>
       <c r="W36" s="16"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>976</v>
       </c>
@@ -19390,7 +19390,7 @@
       </c>
       <c r="W37" s="16"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>977</v>
       </c>
@@ -19447,7 +19447,7 @@
       </c>
       <c r="W38" s="16"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>978</v>
       </c>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="W39" s="16"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>979</v>
       </c>
@@ -19561,7 +19561,7 @@
       </c>
       <c r="W40" s="16"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>980</v>
       </c>
@@ -19618,7 +19618,7 @@
       </c>
       <c r="W41" s="16"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>981</v>
       </c>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="W42" s="16"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>982</v>
       </c>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="W43" s="16"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>983</v>
       </c>
@@ -19789,7 +19789,7 @@
       </c>
       <c r="W44" s="16"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>984</v>
       </c>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="W45" s="16"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>985</v>
       </c>
@@ -19903,7 +19903,7 @@
       </c>
       <c r="W46" s="16"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>986</v>
       </c>
@@ -19960,7 +19960,7 @@
       </c>
       <c r="W47" s="16"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>987</v>
       </c>
@@ -20017,7 +20017,7 @@
       </c>
       <c r="W48" s="16"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>988</v>
       </c>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="W49" s="16"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>989</v>
       </c>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="W50" s="16"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>990</v>
       </c>
@@ -20188,7 +20188,7 @@
       </c>
       <c r="W51" s="16"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>991</v>
       </c>
@@ -20245,7 +20245,7 @@
       </c>
       <c r="W52" s="16"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>992</v>
       </c>
@@ -20302,7 +20302,7 @@
       </c>
       <c r="W53" s="16"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>993</v>
       </c>
@@ -20359,7 +20359,7 @@
       </c>
       <c r="W54" s="16"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>994</v>
       </c>
@@ -20416,7 +20416,7 @@
       </c>
       <c r="W55" s="16"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>995</v>
       </c>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="W56" s="16"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>996</v>
       </c>
@@ -20530,7 +20530,7 @@
       </c>
       <c r="W57" s="16"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>997</v>
       </c>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="W58" s="16"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>998</v>
       </c>
@@ -20644,7 +20644,7 @@
       </c>
       <c r="W59" s="16"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>999</v>
       </c>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="W60" s="16"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>1000</v>
       </c>
@@ -20758,7 +20758,7 @@
       </c>
       <c r="W61" s="16"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>1001</v>
       </c>
@@ -20815,7 +20815,7 @@
       </c>
       <c r="W62" s="16"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>1002</v>
       </c>
@@ -20872,7 +20872,7 @@
       </c>
       <c r="W63" s="16"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>1003</v>
       </c>
@@ -20929,7 +20929,7 @@
       </c>
       <c r="W64" s="16"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>1004</v>
       </c>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="W65" s="16"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>1005</v>
       </c>
@@ -21043,7 +21043,7 @@
       </c>
       <c r="W66" s="16"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>1006</v>
       </c>
@@ -21100,7 +21100,7 @@
       </c>
       <c r="W67" s="16"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>1007</v>
       </c>
@@ -21157,7 +21157,7 @@
       </c>
       <c r="W68" s="16"/>
     </row>
-    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>1008</v>
       </c>
@@ -21215,7 +21215,7 @@
       <c r="S69" s="13"/>
       <c r="W69" s="16"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>1009</v>
       </c>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="W70" s="16"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>1010</v>
       </c>
@@ -21329,15 +21329,15 @@
       </c>
       <c r="W71" s="16"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H72" s="15"/>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H73" s="9"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M74" s="9"/>
     </row>
   </sheetData>
@@ -21350,21 +21350,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>907</v>
       </c>
@@ -21420,8 +21422,8 @@
         <v>923</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>941</v>
       </c>
       <c r="B2" s="2">
@@ -21430,7 +21432,7 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
       <c r="E2" s="2">
@@ -21445,8 +21447,8 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <v>6370285.5199999996</v>
+      <c r="I2" s="11">
+        <v>868675.3</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -21458,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>6370285.5199999996</v>
+        <v>868675.3</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>1012</v>
@@ -21476,8 +21478,8 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>942</v>
       </c>
       <c r="B3" s="2">
@@ -21486,8 +21488,8 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>8340425.7300000004</v>
+      <c r="D3" s="11">
+        <v>1246270.51</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -21501,7 +21503,7 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="11">
         <v>0</v>
       </c>
       <c r="J3" s="2">
@@ -21514,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>8340425.7300000004</v>
+        <v>1246270.51</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1013</v>
@@ -21532,8 +21534,8 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>943</v>
       </c>
       <c r="B4" s="2">
@@ -21542,7 +21544,7 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="2">
@@ -21557,8 +21559,8 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>7165836.04</v>
+      <c r="I4" s="11">
+        <v>977159.46</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -21570,7 +21572,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>7165836.04</v>
+        <v>977159.46</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>1014</v>
@@ -21588,8 +21590,8 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>944</v>
       </c>
       <c r="B5" s="2">
@@ -21598,7 +21600,7 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -21613,8 +21615,8 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>8500890.6199999992</v>
+      <c r="I5" s="11">
+        <v>1270248.02</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -21626,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>8500890.6199999992</v>
+        <v>1270248.02</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>1015</v>
@@ -21644,8 +21646,8 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>945</v>
       </c>
       <c r="B6" s="2">
@@ -21654,7 +21656,7 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
       <c r="E6" s="2">
@@ -21669,8 +21671,8 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>9543749.6400000006</v>
+      <c r="I6" s="11">
+        <v>1301420.4099999999</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -21682,7 +21684,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>9543749.6400000006</v>
+        <v>1301420.4099999999</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>936</v>
@@ -21700,8 +21702,8 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>946</v>
       </c>
       <c r="B7" s="2">
@@ -21710,11 +21712,11 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>13564148.34</v>
+        <v>1849656.59</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -21725,7 +21727,7 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
       <c r="J7" s="2">
@@ -21738,7 +21740,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>13564148.34</v>
+        <v>1849656.59</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>1012</v>
@@ -21756,8 +21758,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>947</v>
       </c>
       <c r="B8" s="2">
@@ -21766,7 +21768,7 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="2">
@@ -21781,8 +21783,8 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <v>13763516.65</v>
+      <c r="I8" s="11">
+        <v>1876843.18</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -21794,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>13763516.65</v>
+        <v>1876843.18</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>1016</v>
@@ -21812,8 +21814,8 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>948</v>
       </c>
       <c r="B9" s="2">
@@ -21822,7 +21824,7 @@
       <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
       <c r="E9" s="2">
@@ -21837,8 +21839,8 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>11317246.119999999</v>
+      <c r="I9" s="11">
+        <v>1691082.75</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -21850,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>11317246.119999999</v>
+        <v>1691082.75</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>1015</v>
@@ -21868,8 +21870,8 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>949</v>
       </c>
       <c r="B10" s="2">
@@ -21878,8 +21880,8 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <v>12888526.640000001</v>
+      <c r="D10" s="11">
+        <v>1757526.36</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -21893,7 +21895,7 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="11">
         <v>0</v>
       </c>
       <c r="J10" s="2">
@@ -21906,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>12888526.640000001</v>
+        <v>1757526.36</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>1017</v>
@@ -21924,8 +21926,8 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>950</v>
       </c>
       <c r="B11" s="2">
@@ -21934,7 +21936,7 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -21949,8 +21951,8 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <v>8874026.0999999996</v>
+      <c r="I11" s="11">
+        <v>1326003.8999999999</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -21962,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>8874026.0999999996</v>
+        <v>1326003.8999999999</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>1018</v>
@@ -21980,8 +21982,8 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>951</v>
       </c>
       <c r="B12" s="2">
@@ -21990,8 +21992,8 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
-        <v>13072882.35</v>
+      <c r="D12" s="11">
+        <v>1953419.2</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -22005,7 +22007,7 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="11">
         <v>0</v>
       </c>
       <c r="J12" s="2">
@@ -22018,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>13072882.35</v>
+        <v>1953419.2</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>1019</v>
@@ -22036,8 +22038,8 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>952</v>
       </c>
       <c r="B13" s="2">
@@ -22046,7 +22048,7 @@
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" s="2">
@@ -22061,8 +22063,8 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2">
-        <v>9893567.6300000008</v>
+      <c r="I13" s="11">
+        <v>1349122.86</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -22074,7 +22076,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>9893567.6300000008</v>
+        <v>1349122.86</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>1020</v>
@@ -22092,33 +22094,33 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>953</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6906273.9800000004</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6611301.7400000002</v>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1031971.97</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>987895.66</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -22130,7 +22132,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>13517575.720000001</v>
+        <v>2019867.63</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>928</v>
@@ -22148,8 +22150,8 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>954</v>
       </c>
       <c r="B15" s="2">
@@ -22158,8 +22160,8 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <v>11194721.109999999</v>
+      <c r="D15" s="11">
+        <v>1526552.88</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -22173,7 +22175,7 @@
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="11">
         <v>0</v>
       </c>
       <c r="J15" s="2">
@@ -22186,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>11194721.109999999</v>
+        <v>1526552.88</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1021</v>
@@ -22204,8 +22206,8 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>955</v>
       </c>
       <c r="B16" s="2">
@@ -22214,23 +22216,23 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <v>7458186.3499999996</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>468912.94</v>
+      <c r="D16" s="12">
+        <v>1114441.6399999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>70067.45</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -22242,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>7927099.29</v>
+        <v>1184509.0900000001</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>928</v>
@@ -22260,8 +22262,8 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>956</v>
       </c>
       <c r="B17" s="2">
@@ -22270,7 +22272,7 @@
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
       <c r="E17" s="2">
@@ -22285,8 +22287,8 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
-        <v>7895412.0199999996</v>
+      <c r="I17" s="11">
+        <v>1179774.21</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -22298,7 +22300,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>7895412.0199999996</v>
+        <v>1179774.21</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>1022</v>
@@ -22316,8 +22318,8 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>957</v>
       </c>
       <c r="B18" s="2">
@@ -22326,7 +22328,7 @@
       <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" s="2">
@@ -22341,8 +22343,8 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="2">
-        <v>7414797.04</v>
+      <c r="I18" s="11">
+        <v>1011108.69</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -22354,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>7414797.04</v>
+        <v>1011108.69</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>939</v>
@@ -22372,8 +22374,8 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>958</v>
       </c>
       <c r="B19" s="2">
@@ -22382,7 +22384,7 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="2">
@@ -22397,8 +22399,8 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
-        <v>5573113.3799999999</v>
+      <c r="I19" s="11">
+        <v>759970.01</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -22410,7 +22412,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>5573113.3799999999</v>
+        <v>759970.01</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>936</v>
@@ -22428,8 +22430,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>959</v>
       </c>
       <c r="B20" s="2">
@@ -22438,23 +22440,23 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
-        <v>3935666.36</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>9545682.9499999993</v>
+      <c r="D20" s="12">
+        <v>588088.07999999996</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1426366.42</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -22466,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>13481349.310000001</v>
+        <v>2014454.5</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>1019</v>
@@ -22484,8 +22486,8 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>960</v>
       </c>
       <c r="B21" s="2">
@@ -22494,8 +22496,8 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
-        <v>14097482.550000001</v>
+      <c r="D21" s="11">
+        <v>1922383.98</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -22509,7 +22511,7 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="11">
         <v>0</v>
       </c>
       <c r="J21" s="2">
@@ -22522,7 +22524,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>14097482.550000001</v>
+        <v>1922383.98</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>938</v>
@@ -22540,8 +22542,8 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>961</v>
       </c>
       <c r="B22" s="2">
@@ -22550,7 +22552,7 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="2">
@@ -22565,8 +22567,8 @@
       <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
-        <v>9531316.9600000009</v>
+      <c r="I22" s="11">
+        <v>1424219.78</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -22578,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>9531316.9600000009</v>
+        <v>1424219.78</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>1023</v>
@@ -22596,8 +22598,8 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>962</v>
       </c>
       <c r="B23" s="2">
@@ -22606,23 +22608,23 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="2">
-        <v>12819055.98</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>3645366.49</v>
+      <c r="D23" s="12">
+        <v>1915491.13</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>544709.93000000005</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -22634,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>16464422.470000001</v>
+        <v>2460201.06</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>940</v>
@@ -22652,8 +22654,8 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>963</v>
       </c>
       <c r="B24" s="2">
@@ -22662,14 +22664,14 @@
       <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>11321927.529999999</v>
+        <v>1691782.28</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -22677,7 +22679,7 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="11">
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -22690,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>11321927.529999999</v>
+        <v>1691782.28</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>937</v>
@@ -22708,8 +22710,8 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>964</v>
       </c>
       <c r="B25" s="2">
@@ -22718,23 +22720,23 @@
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="2">
-        <v>14501539.59</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>253563.17</v>
+      <c r="D25" s="12">
+        <v>2166896.7200000002</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>37888.75</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -22746,7 +22748,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>14755102.76</v>
+        <v>2204785.4700000002</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>1024</v>
@@ -22764,8 +22766,8 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>965</v>
       </c>
       <c r="B26" s="2">
@@ -22774,7 +22776,7 @@
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="11">
         <v>0</v>
       </c>
       <c r="E26" s="2">
@@ -22789,8 +22791,8 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="2">
-        <v>6080355.1799999997</v>
+      <c r="I26" s="11">
+        <v>908558.82</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>6080355.1799999997</v>
+        <v>908558.82</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>1022</v>
@@ -22820,8 +22822,8 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>966</v>
       </c>
       <c r="B27" s="2">
@@ -22830,7 +22832,7 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="11">
         <v>0</v>
       </c>
       <c r="E27" s="2">
@@ -22845,8 +22847,8 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="2">
-        <v>12152678.140000001</v>
+      <c r="I27" s="11">
+        <v>1815917.41</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -22858,7 +22860,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>12152678.140000001</v>
+        <v>1815917.41</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>928</v>
@@ -22876,8 +22878,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>967</v>
       </c>
       <c r="B28" s="2">
@@ -22886,23 +22888,23 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="2">
-        <v>7093305.3600000003</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1787410.75</v>
+      <c r="D28" s="12">
+        <v>1059919.2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>267084.36</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -22914,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>8880716.1099999994</v>
+        <v>1327003.56</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>930</v>
@@ -22932,8 +22934,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>968</v>
       </c>
       <c r="B29" s="2">
@@ -22942,11 +22944,11 @@
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>2504319.7599999998</v>
+        <v>341498.15</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -22957,7 +22959,7 @@
       <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="11">
         <v>0</v>
       </c>
       <c r="J29" s="2">
@@ -22970,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>2504319.7599999998</v>
+        <v>341498.15</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>935</v>
@@ -22988,8 +22990,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>969</v>
       </c>
       <c r="B30" s="2">
@@ -22998,8 +23000,8 @@
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="2">
-        <v>18409943.300000001</v>
+      <c r="D30" s="11">
+        <v>2510446.7799999998</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -23013,7 +23015,7 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="11">
         <v>0</v>
       </c>
       <c r="J30" s="2">
@@ -23026,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>18409943.300000001</v>
+        <v>2510446.7799999998</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>1021</v>
@@ -23044,8 +23046,8 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>970</v>
       </c>
       <c r="B31" s="2">
@@ -23054,23 +23056,23 @@
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="2">
-        <v>5606827.6200000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>50535.72</v>
+      <c r="D31" s="12">
+        <v>764567.41</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>6891.23</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -23082,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>5657363.3399999999</v>
+        <v>771458.64</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>939</v>
@@ -23100,8 +23102,8 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>971</v>
       </c>
       <c r="B32" s="2">
@@ -23110,7 +23112,7 @@
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="11">
         <v>0</v>
       </c>
       <c r="E32" s="2">
@@ -23125,8 +23127,8 @@
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="2">
-        <v>18506965.379999999</v>
+      <c r="I32" s="11">
+        <v>2765408.62</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -23138,7 +23140,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>18506965.379999999</v>
+        <v>2765408.62</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>932</v>
@@ -23156,8 +23158,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>972</v>
       </c>
       <c r="B33" s="2">
@@ -23166,11 +23168,11 @@
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="11">
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>21646722.870000001</v>
+        <v>3234567.78</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -23181,7 +23183,7 @@
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="11">
         <v>0</v>
       </c>
       <c r="J33" s="2">
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>21646722.870000001</v>
+        <v>3234567.78</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>937</v>
@@ -23212,8 +23214,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>973</v>
       </c>
       <c r="B34" s="2">
@@ -23222,11 +23224,11 @@
       <c r="C34" s="2">
         <v>0</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="11">
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>1931268.93</v>
+        <v>288580.40999999997</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -23237,7 +23239,7 @@
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="11">
         <v>0</v>
       </c>
       <c r="J34" s="2">
@@ -23250,7 +23252,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>1931268.93</v>
+        <v>288580.40999999997</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>927</v>
@@ -23268,8 +23270,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>974</v>
       </c>
       <c r="B35" s="2">
@@ -23278,11 +23280,11 @@
       <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="D35" s="2">
-        <v>1067109.8600000001</v>
-      </c>
-      <c r="E35" s="2">
-        <v>7794169.8200000003</v>
+      <c r="D35" s="12">
+        <v>145514.98000000001</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1062841.3400000001</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -23293,7 +23295,7 @@
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="11">
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>8861279.6799999997</v>
+        <v>1208356.32</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>929</v>
@@ -23324,8 +23326,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>975</v>
       </c>
       <c r="B36" s="2">
@@ -23334,7 +23336,7 @@
       <c r="C36" s="2">
         <v>0</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="11">
         <v>0</v>
       </c>
       <c r="E36" s="2">
@@ -23349,8 +23351,8 @@
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" s="2">
-        <v>6916166.79</v>
+      <c r="I36" s="11">
+        <v>1033450.21</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -23362,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>6916166.79</v>
+        <v>1033450.21</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>930</v>
@@ -23380,8 +23382,8 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>976</v>
       </c>
       <c r="B37" s="2">
@@ -23390,7 +23392,7 @@
       <c r="C37" s="2">
         <v>0</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" s="2">
@@ -23405,8 +23407,8 @@
       <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37" s="2">
-        <v>14515491.51</v>
+      <c r="I37" s="11">
+        <v>2168981.4900000002</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -23418,7 +23420,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <v>14515491.51</v>
+        <v>2168981.4900000002</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>1025</v>
@@ -23436,8 +23438,8 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>977</v>
       </c>
       <c r="B38" s="2">
@@ -23446,7 +23448,7 @@
       <c r="C38" s="2">
         <v>0</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="2">
@@ -23459,9 +23461,9 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>5409384</v>
-      </c>
-      <c r="I38" s="2">
+        <v>808298.79</v>
+      </c>
+      <c r="I38" s="11">
         <v>0</v>
       </c>
       <c r="J38" s="2">
@@ -23474,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>5409384</v>
+        <v>808298.79</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>1026</v>
@@ -23492,8 +23494,8 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>978</v>
       </c>
       <c r="B39" s="2">
@@ -23502,8 +23504,8 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2">
-        <v>5334638.32</v>
+      <c r="D39" s="11">
+        <v>727450.68</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -23517,7 +23519,7 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="11">
         <v>0</v>
       </c>
       <c r="J39" s="2">
@@ -23530,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>5334638.32</v>
+        <v>727450.68</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>929</v>
@@ -23548,8 +23550,8 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>979</v>
       </c>
       <c r="B40" s="2">
@@ -23558,11 +23560,11 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>5044593.84</v>
+        <v>687899.16</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -23573,7 +23575,7 @@
       <c r="H40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="11">
         <v>0</v>
       </c>
       <c r="J40" s="2">
@@ -23586,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>5044593.84</v>
+        <v>687899.16</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>932</v>
@@ -23604,8 +23606,8 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>980</v>
       </c>
       <c r="B41" s="2">
@@ -23614,7 +23616,7 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="11">
         <v>0</v>
       </c>
       <c r="E41" s="2">
@@ -23629,8 +23631,8 @@
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41" s="2">
-        <v>22222484</v>
+      <c r="I41" s="11">
+        <v>3320601.18</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -23642,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>22222484</v>
+        <v>3320601.18</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>932</v>
@@ -23660,8 +23662,8 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>981</v>
       </c>
       <c r="B42" s="2">
@@ -23670,7 +23672,7 @@
       <c r="C42" s="2">
         <v>0</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="11">
         <v>0</v>
       </c>
       <c r="E42" s="2">
@@ -23685,8 +23687,8 @@
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="I42" s="2">
-        <v>13291524.4</v>
+      <c r="I42" s="11">
+        <v>1812480.6</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>13291524.4</v>
+        <v>1812480.6</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>1027</v>
@@ -23716,8 +23718,8 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>982</v>
       </c>
       <c r="B43" s="2">
@@ -23726,11 +23728,11 @@
       <c r="C43" s="2">
         <v>0</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="11">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>5288966.6399999997</v>
+        <v>790305.35</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -23741,7 +23743,7 @@
       <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="11">
         <v>0</v>
       </c>
       <c r="J43" s="2">
@@ -23754,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>5288966.6399999997</v>
+        <v>790305.35</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>930</v>
@@ -23772,8 +23774,8 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>983</v>
       </c>
       <c r="B44" s="2">
@@ -23782,8 +23784,8 @@
       <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="D44" s="2">
-        <v>3526906.92</v>
+      <c r="D44" s="11">
+        <v>527009.07999999996</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -23797,7 +23799,7 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="11">
         <v>0</v>
       </c>
       <c r="J44" s="2">
@@ -23810,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>3526906.92</v>
+        <v>527009.07999999996</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>925</v>
@@ -23828,8 +23830,8 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>984</v>
       </c>
       <c r="B45" s="2">
@@ -23838,8 +23840,8 @@
       <c r="C45" s="2">
         <v>0</v>
       </c>
-      <c r="D45" s="2">
-        <v>3489570</v>
+      <c r="D45" s="11">
+        <v>521430</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -23853,7 +23855,7 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="11">
         <v>0</v>
       </c>
       <c r="J45" s="2">
@@ -23866,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>3489570</v>
+        <v>521430</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>1028</v>
@@ -23884,8 +23886,8 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>985</v>
       </c>
       <c r="B46" s="2">
@@ -23894,8 +23896,8 @@
       <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="D46" s="2">
-        <v>6994145.6600000001</v>
+      <c r="D46" s="11">
+        <v>1045102.26</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -23909,8 +23911,8 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46" s="2">
-        <v>7206312.3399999999</v>
+      <c r="I46" s="11">
+        <v>1076805.32</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -23922,7 +23924,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>14200458</v>
+        <v>2121907.58</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>928</v>
@@ -23940,8 +23942,8 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>986</v>
       </c>
       <c r="B47" s="2">
@@ -23950,8 +23952,8 @@
       <c r="C47" s="2">
         <v>0</v>
       </c>
-      <c r="D47" s="2">
-        <v>2181266</v>
+      <c r="D47" s="11">
+        <v>325936.3</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -23965,8 +23967,8 @@
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="2">
-        <v>5643953.3499999996</v>
+      <c r="I47" s="11">
+        <v>843349.35</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>7825219.3499999996</v>
+        <v>1169285.6499999999</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>1019</v>
@@ -23996,8 +23998,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>987</v>
       </c>
       <c r="B48" s="2">
@@ -24006,8 +24008,8 @@
       <c r="C48" s="2">
         <v>0</v>
       </c>
-      <c r="D48" s="2">
-        <v>1918624.38</v>
+      <c r="D48" s="11">
+        <v>261630.6</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -24021,8 +24023,8 @@
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="2">
-        <v>3271666.66</v>
+      <c r="I48" s="11">
+        <v>446136.36</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -24034,7 +24036,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>5190291.04</v>
+        <v>707766.96</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>939</v>
@@ -24052,8 +24054,8 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>988</v>
       </c>
       <c r="B49" s="2">
@@ -24062,7 +24064,7 @@
       <c r="C49" s="2">
         <v>0</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="11">
         <v>0</v>
       </c>
       <c r="E49" s="2">
@@ -24077,8 +24079,8 @@
       <c r="H49" s="2">
         <v>0</v>
       </c>
-      <c r="I49" s="2">
-        <v>2185042</v>
+      <c r="I49" s="11">
+        <v>326500.56</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -24090,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>2185042</v>
+        <v>326500.56</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>936</v>
@@ -24108,8 +24110,8 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>989</v>
       </c>
       <c r="B50" s="2">
@@ -24118,7 +24120,7 @@
       <c r="C50" s="2">
         <v>0</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="11">
         <v>0</v>
       </c>
       <c r="E50" s="2">
@@ -24133,8 +24135,8 @@
       <c r="H50" s="2">
         <v>0</v>
       </c>
-      <c r="I50" s="2">
-        <v>9831773.6999999993</v>
+      <c r="I50" s="11">
+        <v>1600521.3</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -24146,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="2">
-        <v>9831773.6999999993</v>
+        <v>1600521.3</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>1022</v>
@@ -24164,8 +24166,8 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>990</v>
       </c>
       <c r="B51" s="2">
@@ -24174,11 +24176,11 @@
       <c r="C51" s="2">
         <v>0</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="11">
         <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>4593650.46</v>
+        <v>686407</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -24189,7 +24191,7 @@
       <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="11">
         <v>0</v>
       </c>
       <c r="J51" s="2">
@@ -24202,7 +24204,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>4593650.46</v>
+        <v>686407</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>935</v>
@@ -24220,8 +24222,8 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>991</v>
       </c>
       <c r="B52" s="2">
@@ -24230,7 +24232,7 @@
       <c r="C52" s="2">
         <v>0</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="11">
         <v>0</v>
       </c>
       <c r="E52" s="2">
@@ -24245,8 +24247,8 @@
       <c r="H52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="2">
-        <v>9681452.2200000007</v>
+      <c r="I52" s="11">
+        <v>1446653.78</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -24258,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>9681452.2200000007</v>
+        <v>1446653.78</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>938</v>
@@ -24276,8 +24278,8 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>992</v>
       </c>
       <c r="B53" s="2">
@@ -24286,8 +24288,8 @@
       <c r="C53" s="2">
         <v>0</v>
       </c>
-      <c r="D53" s="2">
-        <v>4653403.8</v>
+      <c r="D53" s="11">
+        <v>695336.2</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -24301,7 +24303,7 @@
       <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="11">
         <v>0</v>
       </c>
       <c r="J53" s="2">
@@ -24314,7 +24316,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>4653403.8</v>
+        <v>695336.2</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>929</v>
@@ -24332,8 +24334,8 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>993</v>
       </c>
       <c r="B54" s="2">
@@ -24342,8 +24344,8 @@
       <c r="C54" s="2">
         <v>0</v>
       </c>
-      <c r="D54" s="2">
-        <v>5978041</v>
+      <c r="D54" s="11">
+        <v>973169.54</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -24357,7 +24359,7 @@
       <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="11">
         <v>0</v>
       </c>
       <c r="J54" s="2">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>5978041</v>
+        <v>973169.54</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>924</v>
@@ -24388,8 +24390,8 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>994</v>
       </c>
       <c r="B55" s="2">
@@ -24398,8 +24400,8 @@
       <c r="C55" s="2">
         <v>0</v>
       </c>
-      <c r="D55" s="2">
-        <v>1139112.73</v>
+      <c r="D55" s="11">
+        <v>185436.96</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -24413,8 +24415,8 @@
       <c r="H55" s="2">
         <v>0</v>
       </c>
-      <c r="I55" s="2">
-        <v>2853920.59</v>
+      <c r="I55" s="11">
+        <v>464591.72</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -24426,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>3993033.32</v>
+        <v>650028.67999999993</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>1012</v>
@@ -24444,8 +24446,8 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>995</v>
       </c>
       <c r="B56" s="2">
@@ -24454,8 +24456,8 @@
       <c r="C56" s="2">
         <v>0</v>
       </c>
-      <c r="D56" s="2">
-        <v>11222384.24</v>
+      <c r="D56" s="11">
+        <v>1826899.76</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -24469,7 +24471,7 @@
       <c r="H56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="11">
         <v>0</v>
       </c>
       <c r="J56" s="2">
@@ -24482,7 +24484,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <v>11222384.24</v>
+        <v>1826899.76</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>926</v>
@@ -24500,8 +24502,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>996</v>
       </c>
       <c r="B57" s="2">
@@ -24510,8 +24512,8 @@
       <c r="C57" s="2">
         <v>0</v>
       </c>
-      <c r="D57" s="2">
-        <v>5719056.3600000003</v>
+      <c r="D57" s="11">
+        <v>854571.64</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -24525,7 +24527,7 @@
       <c r="H57" s="2">
         <v>0</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="11">
         <v>0</v>
       </c>
       <c r="J57" s="2">
@@ -24538,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>5719056.3600000003</v>
+        <v>854571.64</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>1029</v>
@@ -24556,8 +24558,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>997</v>
       </c>
       <c r="B58" s="2">
@@ -24566,7 +24568,7 @@
       <c r="C58" s="2">
         <v>0</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="11">
         <v>0</v>
       </c>
       <c r="E58" s="2">
@@ -24581,8 +24583,8 @@
       <c r="H58" s="2">
         <v>0</v>
       </c>
-      <c r="I58" s="2">
-        <v>7518172.46</v>
+      <c r="I58" s="11">
+        <v>1223888.54</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -24594,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <v>7518172.46</v>
+        <v>1223888.54</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>934</v>
@@ -24612,8 +24614,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>998</v>
       </c>
       <c r="B59" s="2">
@@ -24622,8 +24624,8 @@
       <c r="C59" s="2">
         <v>0</v>
       </c>
-      <c r="D59" s="2">
-        <v>778439.86</v>
+      <c r="D59" s="11">
+        <v>166244.51</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -24637,8 +24639,8 @@
       <c r="H59" s="2">
         <v>0</v>
       </c>
-      <c r="I59" s="2">
-        <v>8907472.5199999996</v>
+      <c r="I59" s="11">
+        <v>1902290.11</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -24650,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>9685912.379999999</v>
+        <v>2068534.62</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>939</v>
@@ -24668,8 +24670,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>999</v>
       </c>
       <c r="B60" s="2">
@@ -24678,8 +24680,8 @@
       <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="D60" s="2">
-        <v>7082327.04</v>
+      <c r="D60" s="11">
+        <v>1152936.96</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -24693,7 +24695,7 @@
       <c r="H60" s="2">
         <v>0</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="11">
         <v>0</v>
       </c>
       <c r="J60" s="2">
@@ -24706,7 +24708,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>7082327.04</v>
+        <v>1152936.96</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>925</v>
@@ -24724,8 +24726,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>1000</v>
       </c>
       <c r="B61" s="2">
@@ -24734,8 +24736,8 @@
       <c r="C61" s="2">
         <v>0</v>
       </c>
-      <c r="D61" s="2">
-        <v>10475760.619999999</v>
+      <c r="D61" s="11">
+        <v>1705356.38</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -24749,7 +24751,7 @@
       <c r="H61" s="2">
         <v>0</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="11">
         <v>0</v>
       </c>
       <c r="J61" s="2">
@@ -24762,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="2">
-        <v>10475760.619999999</v>
+        <v>1705356.38</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>1030</v>
@@ -24780,8 +24782,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>1001</v>
       </c>
       <c r="B62" s="2">
@@ -24790,7 +24792,7 @@
       <c r="C62" s="2">
         <v>0</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="11">
         <v>0</v>
       </c>
       <c r="E62" s="2">
@@ -24805,8 +24807,8 @@
       <c r="H62" s="2">
         <v>0</v>
       </c>
-      <c r="I62" s="2">
-        <v>10153196.119999999</v>
+      <c r="I62" s="11">
+        <v>1652845.88</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -24818,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="2">
-        <v>10153196.119999999</v>
+        <v>1652845.88</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>1022</v>
@@ -24836,8 +24838,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>1002</v>
       </c>
       <c r="B63" s="2">
@@ -24846,8 +24848,8 @@
       <c r="C63" s="2">
         <v>0</v>
       </c>
-      <c r="D63" s="2">
-        <v>2854260.02</v>
+      <c r="D63" s="11">
+        <v>464646.98</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -24861,7 +24863,7 @@
       <c r="H63" s="2">
         <v>0</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="11">
         <v>0</v>
       </c>
       <c r="J63" s="2">
@@ -24874,7 +24876,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="2">
-        <v>2854260.02</v>
+        <v>464646.98</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>1023</v>
@@ -24892,8 +24894,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>1003</v>
       </c>
       <c r="B64" s="2">
@@ -24902,11 +24904,11 @@
       <c r="C64" s="2">
         <v>0</v>
       </c>
-      <c r="D64" s="2">
-        <v>525927.68000000005</v>
+      <c r="D64" s="11">
+        <v>78586.89</v>
       </c>
       <c r="E64" s="2">
-        <v>6563170.75</v>
+        <v>980703.68</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
@@ -24917,7 +24919,7 @@
       <c r="H64" s="2">
         <v>0</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="11">
         <v>0</v>
       </c>
       <c r="J64" s="2">
@@ -24930,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="2">
-        <v>7089098.4299999997</v>
+        <v>1059290.57</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>929</v>
@@ -24948,8 +24950,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>1004</v>
       </c>
       <c r="B65" s="2">
@@ -24958,8 +24960,8 @@
       <c r="C65" s="2">
         <v>0</v>
       </c>
-      <c r="D65" s="2">
-        <v>11640765.1</v>
+      <c r="D65" s="11">
+        <v>1895008.27</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -24973,8 +24975,8 @@
       <c r="H65" s="2">
         <v>0</v>
       </c>
-      <c r="I65" s="2">
-        <v>5988766.2000000002</v>
+      <c r="I65" s="11">
+        <v>974915.43</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -24986,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="2">
-        <v>17629531.300000001</v>
+        <v>2869923.7</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>940</v>
@@ -25004,8 +25006,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>1005</v>
       </c>
       <c r="B66" s="2">
@@ -25014,8 +25016,8 @@
       <c r="C66" s="2">
         <v>0</v>
       </c>
-      <c r="D66" s="2">
-        <v>7388317.0999999996</v>
+      <c r="D66" s="11">
+        <v>1202749.29</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -25029,8 +25031,8 @@
       <c r="H66" s="2">
         <v>0</v>
       </c>
-      <c r="I66" s="2">
-        <v>3179734.42</v>
+      <c r="I66" s="11">
+        <v>517631.19</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -25042,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <v>10568051.52</v>
+        <v>1720380.48</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>1024</v>
@@ -25060,8 +25062,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>1006</v>
       </c>
       <c r="B67" s="2">
@@ -25070,8 +25072,8 @@
       <c r="C67" s="2">
         <v>0</v>
       </c>
-      <c r="D67" s="2">
-        <v>844173.81</v>
+      <c r="D67" s="11">
+        <v>137423.64000000001</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -25085,8 +25087,8 @@
       <c r="H67" s="2">
         <v>0</v>
       </c>
-      <c r="I67" s="2">
-        <v>4292456.55</v>
+      <c r="I67" s="11">
+        <v>698772</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
@@ -25098,7 +25100,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <v>5136630.3599999994</v>
+        <v>836195.64</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>1019</v>
@@ -25116,21 +25118,21 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
         <v>1007</v>
       </c>
       <c r="B68" s="2">
-        <v>483616.18</v>
+        <v>78728.22</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
       </c>
-      <c r="D68" s="2">
-        <v>343914.39</v>
+      <c r="D68" s="11">
+        <v>55986.06</v>
       </c>
       <c r="E68" s="2">
-        <v>4829655.34</v>
+        <v>786222.96</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
@@ -25141,8 +25143,8 @@
       <c r="H68" s="2">
         <v>0</v>
       </c>
-      <c r="I68" s="2">
-        <v>1652452.89</v>
+      <c r="I68" s="11">
+        <v>269003.96000000002</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="2">
-        <v>7309638.7999999998</v>
+        <v>1189941.2</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>928</v>
@@ -25172,8 +25174,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
         <v>1008</v>
       </c>
       <c r="B69" s="2">
@@ -25182,8 +25184,8 @@
       <c r="C69" s="2">
         <v>0</v>
       </c>
-      <c r="D69" s="2">
-        <v>569129.31000000006</v>
+      <c r="D69" s="11">
+        <v>203601.74</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -25197,8 +25199,8 @@
       <c r="H69" s="2">
         <v>0</v>
       </c>
-      <c r="I69" s="2">
-        <v>1267687.33</v>
+      <c r="I69" s="11">
+        <v>453505.62</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
@@ -25210,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>1836816.64</v>
+        <v>657107.36</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>1012</v>
@@ -25228,8 +25230,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>1009</v>
       </c>
       <c r="B70" s="2">
@@ -25238,8 +25240,8 @@
       <c r="C70" s="2">
         <v>0</v>
       </c>
-      <c r="D70" s="2">
-        <v>7644173.4400000004</v>
+      <c r="D70" s="11">
+        <v>1244400.33</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -25253,8 +25255,8 @@
       <c r="H70" s="2">
         <v>0</v>
       </c>
-      <c r="I70" s="2">
-        <v>3558204.62</v>
+      <c r="I70" s="11">
+        <v>579242.61</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
@@ -25266,7 +25268,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>11202378.060000001</v>
+        <v>1823642.94</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>930</v>
@@ -25284,8 +25286,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
         <v>1010</v>
       </c>
       <c r="B71" s="2">
@@ -25294,11 +25296,11 @@
       <c r="C71" s="2">
         <v>0</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="11">
         <v>0</v>
       </c>
       <c r="E71" s="2">
-        <v>2729202.26</v>
+        <v>444288.74</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
@@ -25309,7 +25311,7 @@
       <c r="H71" s="2">
         <v>0</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="11">
         <v>0</v>
       </c>
       <c r="J71" s="2">
@@ -25322,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>2729202.26</v>
+        <v>444288.74</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>931</v>
@@ -25340,8 +25342,8 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
         <v>1011</v>
       </c>
       <c r="B72" s="2">
@@ -25350,7 +25352,7 @@
       <c r="C72" s="2">
         <v>0</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="11">
         <v>0</v>
       </c>
       <c r="E72" s="2">
@@ -25365,8 +25367,8 @@
       <c r="H72" s="2">
         <v>0</v>
       </c>
-      <c r="I72" s="2">
-        <v>6485010.4500000002</v>
+      <c r="I72" s="11">
+        <v>969024.55</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>6485010.4500000002</v>
+        <v>969024.55</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>933</v>
@@ -25392,10 +25394,10 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M74" s="8"/>
     </row>
   </sheetData>

--- a/Civilworks cost/Expenditure Preparations/input.xlsx
+++ b/Civilworks cost/Expenditure Preparations/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceNo" sheetId="2" r:id="rId1"/>
@@ -2912,7 +2912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2955,8 +2955,13 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3241,9 +3246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3276,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -14295,8 +14300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14427,7 +14432,7 @@
       <c r="Q2" s="5">
         <v>88</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="20" t="s">
         <v>560</v>
       </c>
       <c r="W2" s="16"/>
@@ -14484,7 +14489,7 @@
       <c r="Q3" s="7">
         <v>97</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="20" t="s">
         <v>561</v>
       </c>
       <c r="W3" s="16"/>
@@ -14541,7 +14546,7 @@
       <c r="Q4" s="7">
         <v>115</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="20" t="s">
         <v>562</v>
       </c>
       <c r="W4" s="16"/>
@@ -14598,7 +14603,7 @@
       <c r="Q5" s="7">
         <v>117</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="20" t="s">
         <v>562</v>
       </c>
       <c r="W5" s="16"/>
@@ -14655,7 +14660,7 @@
       <c r="Q6" s="7">
         <v>125</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="20" t="s">
         <v>563</v>
       </c>
       <c r="W6" s="16"/>
@@ -14712,7 +14717,7 @@
       <c r="Q7" s="7">
         <v>128</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="20" t="s">
         <v>254</v>
       </c>
       <c r="W7" s="16"/>
@@ -14769,7 +14774,7 @@
       <c r="Q8" s="7">
         <v>134</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="20" t="s">
         <v>564</v>
       </c>
       <c r="W8" s="16"/>
@@ -14826,7 +14831,7 @@
       <c r="Q9" s="7">
         <v>141</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="20" t="s">
         <v>565</v>
       </c>
       <c r="W9" s="16"/>
@@ -14883,7 +14888,7 @@
       <c r="Q10" s="5">
         <v>148</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="20" t="s">
         <v>566</v>
       </c>
       <c r="W10" s="16"/>
@@ -14940,7 +14945,7 @@
       <c r="Q11" s="5">
         <v>147</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="20" t="s">
         <v>566</v>
       </c>
       <c r="W11" s="16"/>
@@ -14997,7 +15002,7 @@
       <c r="Q12" s="5">
         <v>146</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="20" t="s">
         <v>566</v>
       </c>
       <c r="W12" s="16"/>
@@ -15054,10 +15059,10 @@
       <c r="Q13" s="7">
         <v>150</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="S13" s="17"/>
+      <c r="S13" s="19"/>
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -15112,7 +15117,7 @@
       <c r="Q14" s="7">
         <v>151</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="20" t="s">
         <v>567</v>
       </c>
       <c r="W14" s="16"/>
@@ -15169,7 +15174,7 @@
       <c r="Q15" s="5">
         <v>152</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="20" t="s">
         <v>567</v>
       </c>
       <c r="W15" s="16"/>
@@ -15226,7 +15231,7 @@
       <c r="Q16" s="5">
         <v>153</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="20" t="s">
         <v>568</v>
       </c>
       <c r="W16" s="16"/>
@@ -15283,7 +15288,7 @@
       <c r="Q17" s="5">
         <v>164</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="20" t="s">
         <v>569</v>
       </c>
       <c r="W17" s="16"/>
@@ -15340,7 +15345,7 @@
       <c r="Q18" s="7">
         <v>167</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="20" t="s">
         <v>570</v>
       </c>
       <c r="W18" s="16"/>
@@ -15397,7 +15402,7 @@
       <c r="Q19" s="5">
         <v>174</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="20" t="s">
         <v>571</v>
       </c>
       <c r="W19" s="16"/>
@@ -15454,7 +15459,7 @@
       <c r="Q20" s="7">
         <v>185</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="20" t="s">
         <v>572</v>
       </c>
       <c r="W20" s="16"/>
@@ -15511,7 +15516,7 @@
       <c r="Q21" s="7">
         <v>186</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="20" t="s">
         <v>572</v>
       </c>
       <c r="W21" s="16"/>
@@ -15568,7 +15573,7 @@
       <c r="Q22" s="7">
         <v>187</v>
       </c>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="20" t="s">
         <v>573</v>
       </c>
       <c r="W22" s="16"/>
@@ -15625,7 +15630,7 @@
       <c r="Q23" s="7">
         <v>189</v>
       </c>
-      <c r="R23" s="18" t="s">
+      <c r="R23" s="20" t="s">
         <v>573</v>
       </c>
       <c r="W23" s="16"/>
@@ -15682,7 +15687,7 @@
       <c r="Q24" s="7">
         <v>199</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="R24" s="20" t="s">
         <v>574</v>
       </c>
       <c r="W24" s="16"/>
@@ -15739,7 +15744,7 @@
       <c r="Q25" s="7">
         <v>200</v>
       </c>
-      <c r="R25" s="18" t="s">
+      <c r="R25" s="20" t="s">
         <v>575</v>
       </c>
       <c r="W25" s="16"/>
@@ -15796,7 +15801,7 @@
       <c r="Q26" s="7">
         <v>202</v>
       </c>
-      <c r="R26" s="18" t="s">
+      <c r="R26" s="20" t="s">
         <v>576</v>
       </c>
       <c r="W26" s="16"/>
@@ -15853,7 +15858,7 @@
       <c r="Q27" s="7">
         <v>209</v>
       </c>
-      <c r="R27" s="18" t="s">
+      <c r="R27" s="20" t="s">
         <v>577</v>
       </c>
       <c r="W27" s="16"/>
@@ -15910,7 +15915,7 @@
       <c r="Q28" s="5">
         <v>210</v>
       </c>
-      <c r="R28" s="18" t="s">
+      <c r="R28" s="20" t="s">
         <v>577</v>
       </c>
       <c r="W28" s="16"/>
@@ -15967,7 +15972,7 @@
       <c r="Q29" s="5">
         <v>211</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="20" t="s">
         <v>577</v>
       </c>
       <c r="W29" s="16"/>
@@ -16024,7 +16029,7 @@
       <c r="Q30" s="5">
         <v>216</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="20" t="s">
         <v>578</v>
       </c>
       <c r="W30" s="16"/>
@@ -16081,7 +16086,7 @@
       <c r="Q31" s="5">
         <v>215</v>
       </c>
-      <c r="R31" s="18" t="s">
+      <c r="R31" s="20" t="s">
         <v>578</v>
       </c>
       <c r="W31" s="16"/>
@@ -16138,7 +16143,7 @@
       <c r="Q32" s="7">
         <v>225</v>
       </c>
-      <c r="R32" s="18" t="s">
+      <c r="R32" s="20" t="s">
         <v>579</v>
       </c>
       <c r="W32" s="16"/>
@@ -16195,7 +16200,7 @@
       <c r="Q33" s="7">
         <v>231</v>
       </c>
-      <c r="R33" s="18" t="s">
+      <c r="R33" s="20" t="s">
         <v>579</v>
       </c>
       <c r="W33" s="16"/>
@@ -16252,7 +16257,7 @@
       <c r="Q34" s="7">
         <v>232</v>
       </c>
-      <c r="R34" s="18" t="s">
+      <c r="R34" s="20" t="s">
         <v>579</v>
       </c>
       <c r="W34" s="16"/>
@@ -16309,7 +16314,7 @@
       <c r="Q35" s="7">
         <v>234</v>
       </c>
-      <c r="R35" s="18" t="s">
+      <c r="R35" s="20" t="s">
         <v>580</v>
       </c>
       <c r="S35" s="17"/>
@@ -16367,7 +16372,7 @@
       <c r="Q36" s="7">
         <v>237</v>
       </c>
-      <c r="R36" s="18" t="s">
+      <c r="R36" s="20" t="s">
         <v>581</v>
       </c>
       <c r="W36" s="16"/>
@@ -16424,7 +16429,7 @@
       <c r="Q37" s="7">
         <v>238</v>
       </c>
-      <c r="R37" s="18" t="s">
+      <c r="R37" s="20" t="s">
         <v>581</v>
       </c>
       <c r="W37" s="16"/>
@@ -16481,7 +16486,7 @@
       <c r="Q38" s="7">
         <v>313</v>
       </c>
-      <c r="R38" s="18" t="s">
+      <c r="R38" s="20" t="s">
         <v>582</v>
       </c>
       <c r="W38" s="16"/>
@@ -16538,7 +16543,7 @@
       <c r="Q39" s="7">
         <v>270</v>
       </c>
-      <c r="R39" s="18" t="s">
+      <c r="R39" s="20" t="s">
         <v>583</v>
       </c>
       <c r="W39" s="16"/>
@@ -16595,7 +16600,7 @@
       <c r="Q40" s="7">
         <v>276</v>
       </c>
-      <c r="R40" s="18" t="s">
+      <c r="R40" s="20" t="s">
         <v>584</v>
       </c>
       <c r="W40" s="16"/>
@@ -16652,7 +16657,7 @@
       <c r="Q41" s="7">
         <v>277</v>
       </c>
-      <c r="R41" s="18" t="s">
+      <c r="R41" s="20" t="s">
         <v>584</v>
       </c>
       <c r="W41" s="16"/>
@@ -16709,7 +16714,7 @@
       <c r="Q42" s="7">
         <v>288</v>
       </c>
-      <c r="R42" s="18" t="s">
+      <c r="R42" s="20" t="s">
         <v>585</v>
       </c>
       <c r="W42" s="16"/>
@@ -16766,7 +16771,7 @@
       <c r="Q43" s="7">
         <v>291</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="R43" s="20" t="s">
         <v>585</v>
       </c>
       <c r="W43" s="16"/>
@@ -16823,7 +16828,7 @@
       <c r="Q44" s="7">
         <v>292</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="R44" s="20" t="s">
         <v>586</v>
       </c>
       <c r="W44" s="16"/>
@@ -16880,7 +16885,7 @@
       <c r="Q45" s="5">
         <v>297</v>
       </c>
-      <c r="R45" s="18" t="s">
+      <c r="R45" s="20" t="s">
         <v>586</v>
       </c>
       <c r="W45" s="16"/>
@@ -16937,7 +16942,7 @@
       <c r="Q46" s="5">
         <v>298</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="R46" s="20" t="s">
         <v>587</v>
       </c>
       <c r="W46" s="16"/>
@@ -16994,7 +16999,7 @@
       <c r="Q47" s="7">
         <v>326</v>
       </c>
-      <c r="R47" s="18" t="s">
+      <c r="R47" s="20" t="s">
         <v>588</v>
       </c>
       <c r="W47" s="16"/>
@@ -17051,7 +17056,7 @@
       <c r="Q48" s="7">
         <v>333</v>
       </c>
-      <c r="R48" s="18" t="s">
+      <c r="R48" s="20" t="s">
         <v>589</v>
       </c>
       <c r="W48" s="16"/>
@@ -17108,7 +17113,7 @@
       <c r="Q49" s="7">
         <v>339</v>
       </c>
-      <c r="R49" s="18" t="s">
+      <c r="R49" s="20" t="s">
         <v>589</v>
       </c>
       <c r="W49" s="16"/>
@@ -17165,7 +17170,7 @@
       <c r="Q50" s="7">
         <v>340</v>
       </c>
-      <c r="R50" s="18" t="s">
+      <c r="R50" s="20" t="s">
         <v>590</v>
       </c>
       <c r="W50" s="16"/>
@@ -17222,7 +17227,7 @@
       <c r="Q51" s="7">
         <v>343</v>
       </c>
-      <c r="R51" s="18" t="s">
+      <c r="R51" s="20" t="s">
         <v>591</v>
       </c>
       <c r="W51" s="16"/>
@@ -17279,7 +17284,7 @@
       <c r="Q52" s="7">
         <v>345</v>
       </c>
-      <c r="R52" s="18" t="s">
+      <c r="R52" s="20" t="s">
         <v>591</v>
       </c>
       <c r="W52" s="16"/>
@@ -17336,7 +17341,7 @@
       <c r="Q53" s="7">
         <v>351</v>
       </c>
-      <c r="R53" s="18" t="s">
+      <c r="R53" s="20" t="s">
         <v>592</v>
       </c>
       <c r="W53" s="16"/>
@@ -17393,7 +17398,7 @@
       <c r="Q54" s="7">
         <v>344</v>
       </c>
-      <c r="R54" s="18" t="s">
+      <c r="R54" s="20" t="s">
         <v>591</v>
       </c>
       <c r="W54" s="16"/>
@@ -17450,7 +17455,7 @@
       <c r="Q55" s="5">
         <v>346</v>
       </c>
-      <c r="R55" s="18" t="s">
+      <c r="R55" s="20" t="s">
         <v>592</v>
       </c>
       <c r="W55" s="16"/>
@@ -17507,7 +17512,7 @@
       <c r="Q56" s="7">
         <v>378</v>
       </c>
-      <c r="R56" s="18" t="s">
+      <c r="R56" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W56" s="16"/>
@@ -17564,7 +17569,7 @@
       <c r="Q57" s="5">
         <v>387</v>
       </c>
-      <c r="R57" s="18" t="s">
+      <c r="R57" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W57" s="16"/>
@@ -17621,7 +17626,7 @@
       <c r="Q58" s="5">
         <v>388</v>
       </c>
-      <c r="R58" s="18" t="s">
+      <c r="R58" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W58" s="16"/>
@@ -17678,7 +17683,7 @@
       <c r="Q59" s="5">
         <v>392</v>
       </c>
-      <c r="R59" s="18" t="s">
+      <c r="R59" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W59" s="16"/>
@@ -17735,7 +17740,7 @@
       <c r="Q60" s="5">
         <v>399</v>
       </c>
-      <c r="R60" s="18" t="s">
+      <c r="R60" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W60" s="16"/>
@@ -17792,7 +17797,7 @@
       <c r="Q61" s="5">
         <v>400</v>
       </c>
-      <c r="R61" s="18" t="s">
+      <c r="R61" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W61" s="16"/>
@@ -17849,7 +17854,7 @@
       <c r="Q62" s="5">
         <v>401</v>
       </c>
-      <c r="R62" s="18" t="s">
+      <c r="R62" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W62" s="16"/>
@@ -17906,7 +17911,7 @@
       <c r="Q63" s="5">
         <v>394</v>
       </c>
-      <c r="R63" s="18" t="s">
+      <c r="R63" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W63" s="16"/>
@@ -17963,7 +17968,7 @@
       <c r="Q64" s="5">
         <v>396</v>
       </c>
-      <c r="R64" s="18" t="s">
+      <c r="R64" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W64" s="16"/>
@@ -18020,7 +18025,7 @@
       <c r="Q65" s="5">
         <v>397</v>
       </c>
-      <c r="R65" s="18" t="s">
+      <c r="R65" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W65" s="16"/>
@@ -18077,7 +18082,7 @@
       <c r="Q66" s="7">
         <v>398</v>
       </c>
-      <c r="R66" s="18" t="s">
+      <c r="R66" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W66" s="16"/>
@@ -18134,7 +18139,7 @@
       <c r="Q67" s="5">
         <v>393</v>
       </c>
-      <c r="R67" s="18" t="s">
+      <c r="R67" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W67" s="16"/>
@@ -18191,7 +18196,7 @@
       <c r="Q68" s="7">
         <v>395</v>
       </c>
-      <c r="R68" s="18" t="s">
+      <c r="R68" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W68" s="16"/>
@@ -18248,7 +18253,7 @@
       <c r="Q69" s="5">
         <v>403</v>
       </c>
-      <c r="R69" s="18" t="s">
+      <c r="R69" s="20" t="s">
         <v>593</v>
       </c>
       <c r="S69" s="13"/>
@@ -18306,7 +18311,7 @@
       <c r="Q70" s="5">
         <v>402</v>
       </c>
-      <c r="R70" s="18" t="s">
+      <c r="R70" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W70" s="16"/>
@@ -18363,7 +18368,7 @@
       <c r="Q71" s="5">
         <v>416</v>
       </c>
-      <c r="R71" s="18" t="s">
+      <c r="R71" s="20" t="s">
         <v>593</v>
       </c>
       <c r="W71" s="16"/>
